--- a/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en.xlsx
+++ b/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sofware\perfex_webapp\branches\perfex_development\perfex_webapp\modules\warehouse\uploads\file_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkKING\Documents\project\perfexsof\perfexsoft\modules\warehouse\uploads\file_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914C024-516E-431E-95B0-BDA81B26A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +50,18 @@
     <t>Sub group</t>
   </si>
   <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
     <t>Warranty ( month )</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>(*)Commodity Code</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -78,80 +83,20 @@
     <t>Color</t>
   </si>
   <si>
+    <t>Sale price</t>
+  </si>
+  <si>
     <t>Minimum inventory</t>
   </si>
   <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Sale price</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Commodity Code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Commodity Name</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,20 +109,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,16 +181,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,87 +469,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="19" width="33.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="3" customWidth="1"/>
+    <col min="1" max="19" width="33.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" style="3" customWidth="1"/>
     <col min="21" max="22" width="22" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en.xlsx
+++ b/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkKING\Documents\project\perfexsof\perfexsoft\modules\warehouse\uploads\file_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sofware\perfex_webapp\branches\perfex_development\perfex_webapp\modules\warehouse\uploads\file_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914C024-516E-431E-95B0-BDA81B26A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,18 +51,12 @@
     <t>Sub group</t>
   </si>
   <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
     <t>Warranty ( month )</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>(*)Commodity Code</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -83,20 +78,80 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Sale price</t>
-  </si>
-  <si>
     <t>Minimum inventory</t>
   </si>
   <si>
     <t>Tags</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Sale price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Commodity Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Commodity Name</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +164,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,13 +250,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,87 +541,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="33.54296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" style="3" customWidth="1"/>
+    <col min="1" max="19" width="33.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="3" customWidth="1"/>
     <col min="21" max="22" width="22" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="3"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
